--- a/TABLE_III_Fitting_of_models_space_whole_community.xlsx
+++ b/TABLE_III_Fitting_of_models_space_whole_community.xlsx
@@ -22,39 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="37">
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Table III. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Fits of different linear models, including their coefficient of determination and Akaike Information Criterion (AIC) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">for various trait spaces in a bird </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">community across different archipelagos.</t>
+    <t xml:space="preserve">Table III. Fits of different linear models, including their coefficient of determination and Akaike Information Criterion (AIC) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">for various trait spaces in a bird community across different archipelagos.</t>
   </si>
   <si>
     <t xml:space="preserve">Archipelago</t>
@@ -169,7 +140,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -201,13 +172,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
+      <b val="true"/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -220,13 +185,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -306,7 +264,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -315,51 +273,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -383,7 +337,7 @@
   <dimension ref="A1:Z77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="58" zoomScaleNormal="58" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -403,6 +357,20 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -424,7 +392,7 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4"/>
+      <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -440,2826 +408,2831 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="7"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="11" t="n">
+      <c r="C6" s="10" t="n">
         <v>0.6837</v>
       </c>
-      <c r="D6" s="11" t="n">
+      <c r="D6" s="10" t="n">
         <v>0.8231</v>
       </c>
-      <c r="E6" s="11" t="n">
+      <c r="E6" s="10" t="n">
         <v>0.7456</v>
       </c>
-      <c r="F6" s="11" t="n">
+      <c r="F6" s="10" t="n">
         <v>0.8683769</v>
       </c>
-      <c r="G6" s="11" t="n">
+      <c r="G6" s="10" t="n">
         <v>230.0567</v>
       </c>
-      <c r="H6" s="11" t="n">
+      <c r="H6" s="10" t="n">
         <v>213.4699</v>
       </c>
-      <c r="I6" s="11" t="n">
+      <c r="I6" s="10" t="n">
         <v>215.5378</v>
       </c>
-      <c r="J6" s="11" t="n">
+      <c r="J6" s="10" t="n">
         <v>204.0003</v>
       </c>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="11" t="n">
+      <c r="C7" s="10" t="n">
         <v>0.647</v>
       </c>
-      <c r="D7" s="11" t="n">
+      <c r="D7" s="10" t="n">
         <v>0.9104</v>
       </c>
-      <c r="E7" s="11" t="n">
+      <c r="E7" s="10" t="n">
         <v>0.7776</v>
       </c>
-      <c r="F7" s="11" t="n">
+      <c r="F7" s="10" t="n">
         <v>0.9591508</v>
       </c>
-      <c r="G7" s="11" t="n">
+      <c r="G7" s="10" t="n">
         <v>154.6733</v>
       </c>
-      <c r="H7" s="11" t="n">
+      <c r="H7" s="10" t="n">
         <v>112.7892</v>
       </c>
-      <c r="I7" s="11" t="n">
+      <c r="I7" s="10" t="n">
         <v>206.7028</v>
       </c>
-      <c r="J7" s="11" t="n">
+      <c r="J7" s="10" t="n">
         <v>87.66058</v>
       </c>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="11" t="n">
+      <c r="C8" s="10" t="n">
         <v>0.6138</v>
       </c>
-      <c r="D8" s="11" t="n">
+      <c r="D8" s="10" t="n">
         <v>0.8866</v>
       </c>
-      <c r="E8" s="11" t="n">
+      <c r="E8" s="10" t="n">
         <v>0.7793</v>
       </c>
-      <c r="F8" s="11" t="n">
+      <c r="F8" s="10" t="n">
         <v>0.9414819</v>
       </c>
-      <c r="G8" s="11" t="n">
+      <c r="G8" s="10" t="n">
         <v>178.6225</v>
       </c>
-      <c r="H8" s="11" t="n">
+      <c r="H8" s="10" t="n">
         <v>141.3957</v>
       </c>
-      <c r="I8" s="12" t="n">
+      <c r="I8" s="11" t="n">
         <v>207.031</v>
       </c>
-      <c r="J8" s="11" t="n">
+      <c r="J8" s="10" t="n">
         <v>120.2345</v>
       </c>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="11" t="n">
+      <c r="C9" s="10" t="n">
         <v>0.5229</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="10" t="n">
         <v>0.8801</v>
       </c>
-      <c r="E9" s="11" t="n">
+      <c r="E9" s="10" t="n">
         <v>0.5751</v>
       </c>
-      <c r="F9" s="12" t="n">
+      <c r="F9" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="11" t="n">
+      <c r="G9" s="10" t="n">
         <v>4.011496</v>
       </c>
-      <c r="H9" s="11" t="n">
+      <c r="H9" s="10" t="n">
         <v>-5.033828</v>
       </c>
-      <c r="I9" s="11" t="n">
+      <c r="I9" s="10" t="n">
         <v>58.26075</v>
       </c>
-      <c r="J9" s="11" t="n">
+      <c r="J9" s="10" t="n">
         <v>-191.3571</v>
       </c>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="11" t="n">
+      <c r="C10" s="10" t="n">
         <v>0.5807</v>
       </c>
-      <c r="D10" s="11" t="n">
+      <c r="D10" s="10" t="n">
         <v>0.8956</v>
       </c>
-      <c r="E10" s="11" t="n">
+      <c r="E10" s="10" t="n">
         <v>0.5729</v>
       </c>
-      <c r="F10" s="11" t="n">
+      <c r="F10" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="11" t="n">
+      <c r="G10" s="10" t="n">
         <v>9.513022</v>
       </c>
-      <c r="H10" s="11" t="n">
+      <c r="H10" s="10" t="n">
         <v>0.3919034</v>
       </c>
-      <c r="I10" s="11" t="n">
+      <c r="I10" s="10" t="n">
         <v>58.71421</v>
       </c>
-      <c r="J10" s="11" t="n">
+      <c r="J10" s="10" t="n">
         <v>-240.3972</v>
       </c>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="11" t="n">
+      <c r="C11" s="10" t="n">
         <v>0.5814</v>
       </c>
-      <c r="D11" s="11" t="n">
+      <c r="D11" s="10" t="n">
         <v>0.8622</v>
       </c>
-      <c r="E11" s="11" t="n">
+      <c r="E11" s="10" t="n">
         <v>0.572</v>
       </c>
-      <c r="F11" s="12" t="n">
+      <c r="F11" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="11" t="n">
+      <c r="G11" s="10" t="n">
         <v>12.87093</v>
       </c>
-      <c r="H11" s="11" t="n">
+      <c r="H11" s="10" t="n">
         <v>5.982643</v>
       </c>
-      <c r="I11" s="11" t="n">
+      <c r="I11" s="10" t="n">
         <v>58.89864</v>
       </c>
-      <c r="J11" s="11" t="n">
+      <c r="J11" s="10" t="n">
         <v>-235.9334</v>
       </c>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="11" t="n">
+      <c r="C12" s="10" t="n">
         <v>0.2473</v>
       </c>
-      <c r="D12" s="11" t="n">
+      <c r="D12" s="10" t="n">
         <v>0.4466</v>
       </c>
-      <c r="E12" s="11" t="n">
+      <c r="E12" s="10" t="n">
         <v>0.4626</v>
       </c>
-      <c r="F12" s="11" t="n">
+      <c r="F12" s="10" t="n">
         <v>0.9287956</v>
       </c>
-      <c r="G12" s="11" t="n">
+      <c r="G12" s="10" t="n">
         <v>408.8648</v>
       </c>
-      <c r="H12" s="11" t="n">
+      <c r="H12" s="10" t="n">
         <v>394.5661</v>
       </c>
-      <c r="I12" s="11" t="n">
+      <c r="I12" s="10" t="n">
         <v>358.1039</v>
       </c>
-      <c r="J12" s="11" t="n">
+      <c r="J12" s="10" t="n">
         <v>285.8845</v>
       </c>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="11" t="n">
+      <c r="C13" s="10" t="n">
         <v>0.286</v>
       </c>
-      <c r="D13" s="11" t="n">
+      <c r="D13" s="10" t="n">
         <v>0.4554</v>
       </c>
-      <c r="E13" s="11" t="n">
+      <c r="E13" s="10" t="n">
         <v>0.4589</v>
       </c>
-      <c r="F13" s="11" t="n">
+      <c r="F13" s="10" t="n">
         <v>0.8501378</v>
       </c>
-      <c r="G13" s="11" t="n">
+      <c r="G13" s="10" t="n">
         <v>263.0772</v>
       </c>
-      <c r="H13" s="11" t="n">
+      <c r="H13" s="10" t="n">
         <v>250.7241</v>
       </c>
-      <c r="I13" s="11" t="n">
+      <c r="I13" s="10" t="n">
         <v>354.823</v>
       </c>
-      <c r="J13" s="11" t="n">
+      <c r="J13" s="10" t="n">
         <v>182.3348</v>
       </c>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="11" t="n">
+      <c r="C14" s="10" t="n">
         <v>0.3458</v>
       </c>
-      <c r="D14" s="11" t="n">
+      <c r="D14" s="10" t="n">
         <v>0.494</v>
       </c>
-      <c r="E14" s="11" t="n">
+      <c r="E14" s="10" t="n">
         <v>0.4609</v>
       </c>
-      <c r="F14" s="11" t="n">
+      <c r="F14" s="10" t="n">
         <v>0.7490077</v>
       </c>
-      <c r="G14" s="11" t="n">
+      <c r="G14" s="10" t="n">
         <v>287.6052</v>
       </c>
-      <c r="H14" s="11" t="n">
+      <c r="H14" s="10" t="n">
         <v>275.9918</v>
       </c>
-      <c r="I14" s="11" t="n">
+      <c r="I14" s="10" t="n">
         <v>356.9986</v>
       </c>
-      <c r="J14" s="11" t="n">
+      <c r="J14" s="10" t="n">
         <v>238.8315</v>
       </c>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="11" t="n">
+      <c r="C15" s="10" t="n">
         <v>0.8535</v>
       </c>
-      <c r="D15" s="11" t="n">
+      <c r="D15" s="10" t="n">
         <v>0.8933</v>
       </c>
-      <c r="E15" s="11" t="n">
+      <c r="E15" s="10" t="n">
         <v>0.5859</v>
       </c>
-      <c r="F15" s="11" t="n">
+      <c r="F15" s="10" t="n">
         <v>0.8945525</v>
       </c>
-      <c r="G15" s="11" t="n">
+      <c r="G15" s="10" t="n">
         <v>330.8874</v>
       </c>
-      <c r="H15" s="11" t="n">
+      <c r="H15" s="10" t="n">
         <v>317.0347</v>
       </c>
-      <c r="I15" s="11" t="n">
+      <c r="I15" s="10" t="n">
         <v>344.904</v>
       </c>
-      <c r="J15" s="11" t="n">
+      <c r="J15" s="10" t="n">
         <v>316.4608</v>
       </c>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="11" t="n">
+      <c r="C16" s="10" t="n">
         <v>0.756</v>
       </c>
-      <c r="D16" s="11" t="n">
+      <c r="D16" s="10" t="n">
         <v>0.8924</v>
       </c>
-      <c r="E16" s="12" t="n">
+      <c r="E16" s="11" t="n">
         <v>0.6317</v>
       </c>
-      <c r="F16" s="11" t="n">
+      <c r="F16" s="10" t="n">
         <v>0.9684957</v>
       </c>
-      <c r="G16" s="11" t="n">
+      <c r="G16" s="10" t="n">
         <v>237.3799</v>
       </c>
-      <c r="H16" s="11" t="n">
+      <c r="H16" s="10" t="n">
         <v>198.4144</v>
       </c>
-      <c r="I16" s="12" t="n">
+      <c r="I16" s="11" t="n">
         <v>331.6194</v>
       </c>
-      <c r="J16" s="11" t="n">
+      <c r="J16" s="10" t="n">
         <v>137.0226</v>
       </c>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="11" t="n">
+      <c r="C17" s="10" t="n">
         <v>0.7148</v>
       </c>
-      <c r="D17" s="11" t="n">
+      <c r="D17" s="10" t="n">
         <v>0.8738</v>
       </c>
-      <c r="E17" s="12" t="n">
+      <c r="E17" s="11" t="n">
         <v>0.648</v>
       </c>
-      <c r="F17" s="11" t="n">
+      <c r="F17" s="10" t="n">
         <v>0.9787471</v>
       </c>
-      <c r="G17" s="11" t="n">
+      <c r="G17" s="10" t="n">
         <v>344.3068</v>
       </c>
-      <c r="H17" s="11" t="n">
+      <c r="H17" s="10" t="n">
         <v>305.5321</v>
       </c>
-      <c r="I17" s="11" t="n">
+      <c r="I17" s="10" t="n">
         <v>332.2293</v>
       </c>
-      <c r="J17" s="11" t="n">
+      <c r="J17" s="10" t="n">
         <v>216.4741</v>
       </c>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="11" t="n">
+      <c r="C18" s="10" t="n">
         <v>0.7554</v>
       </c>
-      <c r="D18" s="11" t="n">
+      <c r="D18" s="10" t="n">
         <v>0.7854</v>
       </c>
-      <c r="E18" s="11" t="n">
+      <c r="E18" s="10" t="n">
         <v>0.7421</v>
       </c>
-      <c r="F18" s="11" t="n">
+      <c r="F18" s="10" t="n">
         <v>0.9851526</v>
       </c>
-      <c r="G18" s="11" t="n">
+      <c r="G18" s="10" t="n">
         <v>51.88423</v>
       </c>
-      <c r="H18" s="11" t="n">
+      <c r="H18" s="10" t="n">
         <v>51.78869</v>
       </c>
-      <c r="I18" s="11" t="n">
+      <c r="I18" s="10" t="n">
         <v>109.561</v>
       </c>
-      <c r="J18" s="11" t="n">
+      <c r="J18" s="10" t="n">
         <v>9.052827</v>
       </c>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="11" t="n">
+      <c r="C19" s="10" t="n">
         <v>0.7212</v>
       </c>
-      <c r="D19" s="11" t="n">
+      <c r="D19" s="10" t="n">
         <v>0.7377</v>
       </c>
-      <c r="E19" s="11" t="n">
+      <c r="E19" s="10" t="n">
         <v>0.7408</v>
       </c>
-      <c r="F19" s="11" t="n">
+      <c r="F19" s="10" t="n">
         <v>0.7736115</v>
       </c>
-      <c r="G19" s="11" t="n">
+      <c r="G19" s="10" t="n">
         <v>24.15488</v>
       </c>
-      <c r="H19" s="11" t="n">
+      <c r="H19" s="10" t="n">
         <v>25.17616</v>
       </c>
-      <c r="I19" s="11" t="n">
+      <c r="I19" s="10" t="n">
         <v>108.4029</v>
       </c>
-      <c r="J19" s="11" t="n">
+      <c r="J19" s="10" t="n">
         <v>40.0605</v>
       </c>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="11" t="n">
+      <c r="C20" s="10" t="n">
         <v>0.7406</v>
       </c>
-      <c r="D20" s="11" t="n">
+      <c r="D20" s="10" t="n">
         <v>0.7611</v>
       </c>
-      <c r="E20" s="11" t="n">
+      <c r="E20" s="10" t="n">
         <v>0.7414</v>
       </c>
-      <c r="F20" s="11" t="n">
+      <c r="F20" s="10" t="n">
         <v>0.677944</v>
       </c>
-      <c r="G20" s="11" t="n">
+      <c r="G20" s="10" t="n">
         <v>27.36219</v>
       </c>
-      <c r="H20" s="11" t="n">
+      <c r="H20" s="10" t="n">
         <v>28.04499</v>
       </c>
-      <c r="I20" s="11" t="n">
+      <c r="I20" s="10" t="n">
         <v>108.5587</v>
       </c>
-      <c r="J20" s="11" t="n">
+      <c r="J20" s="10" t="n">
         <v>39.65908</v>
       </c>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="11" t="n">
+      <c r="C21" s="10" t="n">
         <v>0.7524</v>
       </c>
-      <c r="D21" s="11" t="n">
+      <c r="D21" s="10" t="n">
         <v>0.7858</v>
       </c>
-      <c r="E21" s="11" t="n">
+      <c r="E21" s="10" t="n">
         <v>0.7806</v>
       </c>
-      <c r="F21" s="11" t="n">
+      <c r="F21" s="10" t="n">
         <v>0.9922965</v>
       </c>
-      <c r="G21" s="11" t="n">
+      <c r="G21" s="10" t="n">
         <v>1020.711</v>
       </c>
-      <c r="H21" s="11" t="n">
+      <c r="H21" s="10" t="n">
         <v>1003.433</v>
       </c>
-      <c r="I21" s="11" t="n">
+      <c r="I21" s="10" t="n">
         <v>865.2837</v>
       </c>
-      <c r="J21" s="11" t="n">
+      <c r="J21" s="10" t="n">
         <v>561.1727</v>
       </c>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="11" t="n">
+      <c r="C22" s="10" t="n">
         <v>0.7956</v>
       </c>
-      <c r="D22" s="11" t="n">
+      <c r="D22" s="10" t="n">
         <v>0.8537</v>
       </c>
-      <c r="E22" s="11" t="n">
+      <c r="E22" s="10" t="n">
         <v>0.7794</v>
       </c>
-      <c r="F22" s="11" t="n">
+      <c r="F22" s="10" t="n">
         <v>0.9802149</v>
       </c>
-      <c r="G22" s="11" t="n">
+      <c r="G22" s="10" t="n">
         <v>674.3469</v>
       </c>
-      <c r="H22" s="11" t="n">
+      <c r="H22" s="10" t="n">
         <v>631.8481</v>
       </c>
-      <c r="I22" s="11" t="n">
+      <c r="I22" s="10" t="n">
         <v>854.1027</v>
       </c>
-      <c r="J22" s="11" t="n">
+      <c r="J22" s="10" t="n">
         <v>365.7791</v>
       </c>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="11" t="n">
+      <c r="C23" s="10" t="n">
         <v>0.8132</v>
       </c>
-      <c r="D23" s="12" t="n">
+      <c r="D23" s="11" t="n">
         <v>0.8549</v>
       </c>
-      <c r="E23" s="11" t="n">
+      <c r="E23" s="10" t="n">
         <v>0.7685</v>
       </c>
-      <c r="F23" s="11" t="n">
+      <c r="F23" s="10" t="n">
         <v>0.9748868</v>
       </c>
-      <c r="G23" s="11" t="n">
+      <c r="G23" s="10" t="n">
         <v>747.2725</v>
       </c>
-      <c r="H23" s="11" t="n">
+      <c r="H23" s="10" t="n">
         <v>715.6944</v>
       </c>
-      <c r="I23" s="11" t="n">
+      <c r="I23" s="10" t="n">
         <v>866.0975</v>
       </c>
-      <c r="J23" s="11" t="n">
+      <c r="J23" s="10" t="n">
         <v>482.3705</v>
       </c>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="11" t="n">
+      <c r="C24" s="10" t="n">
         <v>0.07068</v>
       </c>
-      <c r="D24" s="11" t="n">
+      <c r="D24" s="10" t="n">
         <v>0.1257</v>
       </c>
-      <c r="E24" s="11" t="n">
+      <c r="E24" s="10" t="n">
         <v>0.05771</v>
       </c>
-      <c r="F24" s="11" t="n">
+      <c r="F24" s="10" t="n">
         <v>0.07237007</v>
       </c>
-      <c r="G24" s="11" t="n">
+      <c r="G24" s="10" t="n">
         <v>156.2551</v>
       </c>
-      <c r="H24" s="11" t="n">
+      <c r="H24" s="10" t="n">
         <v>155.4473</v>
       </c>
-      <c r="I24" s="11" t="n">
+      <c r="I24" s="10" t="n">
         <v>-67.76105</v>
       </c>
-      <c r="J24" s="11" t="n">
+      <c r="J24" s="10" t="n">
         <v>158.1712</v>
       </c>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="11" t="n">
+      <c r="C25" s="10" t="n">
         <v>0.2905</v>
       </c>
-      <c r="D25" s="11" t="n">
+      <c r="D25" s="10" t="n">
         <v>0.6058</v>
       </c>
-      <c r="E25" s="11" t="n">
+      <c r="E25" s="10" t="n">
         <v>0.3476</v>
       </c>
-      <c r="F25" s="11" t="n">
+      <c r="F25" s="10" t="n">
         <v>0.8626764</v>
       </c>
-      <c r="G25" s="11" t="n">
+      <c r="G25" s="10" t="n">
         <v>117.8496</v>
       </c>
-      <c r="H25" s="11" t="n">
+      <c r="H25" s="10" t="n">
         <v>92.80759</v>
       </c>
-      <c r="I25" s="11" t="n">
+      <c r="I25" s="10" t="n">
         <v>92.11908</v>
       </c>
-      <c r="J25" s="11" t="n">
+      <c r="J25" s="10" t="n">
         <v>44.30505</v>
       </c>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="11" t="n">
+      <c r="C26" s="10" t="n">
         <v>0.0932</v>
       </c>
-      <c r="D26" s="11" t="n">
+      <c r="D26" s="10" t="n">
         <v>0.4132</v>
       </c>
-      <c r="E26" s="12" t="n">
+      <c r="E26" s="11" t="n">
         <v>0.01853</v>
       </c>
-      <c r="F26" s="13" t="n">
+      <c r="F26" s="12" t="n">
         <v>0.1358665</v>
       </c>
-      <c r="G26" s="11" t="n">
+      <c r="G26" s="10" t="n">
         <v>145.5679</v>
       </c>
-      <c r="H26" s="11" t="n">
+      <c r="H26" s="10" t="n">
         <v>127.5496</v>
       </c>
-      <c r="I26" s="11" t="n">
+      <c r="I26" s="10" t="n">
         <v>53.03455</v>
       </c>
-      <c r="J26" s="11" t="n">
+      <c r="J26" s="10" t="n">
         <v>145.3512</v>
       </c>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="11" t="n">
+      <c r="C27" s="10" t="n">
         <v>0.8319</v>
       </c>
-      <c r="D27" s="11" t="n">
+      <c r="D27" s="10" t="n">
         <v>0.8349</v>
       </c>
-      <c r="E27" s="11" t="n">
+      <c r="E27" s="10" t="n">
         <v>0.6514</v>
       </c>
-      <c r="F27" s="11" t="n">
+      <c r="F27" s="10" t="n">
         <v>0.9291792</v>
       </c>
-      <c r="G27" s="11" t="n">
+      <c r="G27" s="10" t="n">
         <v>230.9413</v>
       </c>
-      <c r="H27" s="11" t="n">
+      <c r="H27" s="10" t="n">
         <v>232.3787</v>
       </c>
-      <c r="I27" s="11" t="n">
+      <c r="I27" s="10" t="n">
         <v>215.5142</v>
       </c>
-      <c r="J27" s="11" t="n">
+      <c r="J27" s="10" t="n">
         <v>206.1473</v>
       </c>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="11" t="n">
+      <c r="C28" s="10" t="n">
         <v>0.8472</v>
       </c>
-      <c r="D28" s="11" t="n">
+      <c r="D28" s="10" t="n">
         <v>0.8483</v>
       </c>
-      <c r="E28" s="11" t="n">
+      <c r="E28" s="10" t="n">
         <v>0.6653</v>
       </c>
-      <c r="F28" s="11" t="n">
+      <c r="F28" s="10" t="n">
         <v>0.960724</v>
       </c>
-      <c r="G28" s="11" t="n">
+      <c r="G28" s="10" t="n">
         <v>137.0119</v>
       </c>
-      <c r="H28" s="11" t="n">
+      <c r="H28" s="10" t="n">
         <v>138.7878</v>
       </c>
-      <c r="I28" s="11" t="n">
+      <c r="I28" s="10" t="n">
         <v>210.356</v>
       </c>
-      <c r="J28" s="11" t="n">
+      <c r="J28" s="10" t="n">
         <v>96.89965</v>
       </c>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="11" t="n">
+      <c r="C29" s="10" t="n">
         <v>0.8216</v>
       </c>
-      <c r="D29" s="11" t="n">
+      <c r="D29" s="10" t="n">
         <v>0.8217</v>
       </c>
-      <c r="E29" s="11" t="n">
+      <c r="E29" s="10" t="n">
         <v>0.6628</v>
       </c>
-      <c r="F29" s="11" t="n">
+      <c r="F29" s="10" t="n">
         <v>0.9580979</v>
       </c>
-      <c r="G29" s="11" t="n">
+      <c r="G29" s="10" t="n">
         <v>169.944</v>
       </c>
-      <c r="H29" s="11" t="n">
+      <c r="H29" s="10" t="n">
         <v>171.9273</v>
       </c>
-      <c r="I29" s="11" t="n">
+      <c r="I29" s="10" t="n">
         <v>211.71</v>
       </c>
-      <c r="J29" s="11" t="n">
+      <c r="J29" s="10" t="n">
         <v>127.0285</v>
       </c>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="11" t="n">
+      <c r="C30" s="10" t="n">
         <v>0.6202</v>
       </c>
-      <c r="D30" s="11" t="n">
+      <c r="D30" s="10" t="n">
         <v>0.8167</v>
       </c>
-      <c r="E30" s="11" t="n">
+      <c r="E30" s="10" t="n">
         <v>0.6148</v>
       </c>
-      <c r="F30" s="11" t="n">
+      <c r="F30" s="10" t="n">
         <v>0.9960299</v>
       </c>
-      <c r="G30" s="11" t="n">
+      <c r="G30" s="10" t="n">
         <v>684.8977</v>
       </c>
-      <c r="H30" s="11" t="n">
+      <c r="H30" s="10" t="n">
         <v>623.5105</v>
       </c>
-      <c r="I30" s="11" t="n">
+      <c r="I30" s="10" t="n">
         <v>604.0061</v>
       </c>
-      <c r="J30" s="11" t="n">
+      <c r="J30" s="10" t="n">
         <v>290.1083</v>
       </c>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="11" t="n">
+      <c r="C31" s="10" t="n">
         <v>0.6124</v>
       </c>
-      <c r="D31" s="11" t="n">
+      <c r="D31" s="10" t="n">
         <v>0.7952</v>
       </c>
-      <c r="E31" s="11" t="n">
+      <c r="E31" s="10" t="n">
         <v>0.6144</v>
       </c>
-      <c r="F31" s="11" t="n">
+      <c r="F31" s="10" t="n">
         <v>0.997729</v>
       </c>
-      <c r="G31" s="11" t="n">
+      <c r="G31" s="10" t="n">
         <v>451.6656</v>
       </c>
-      <c r="H31" s="11" t="n">
+      <c r="H31" s="10" t="n">
         <v>398.1773</v>
       </c>
-      <c r="I31" s="11" t="n">
+      <c r="I31" s="10" t="n">
         <v>595.0962</v>
       </c>
-      <c r="J31" s="11" t="n">
+      <c r="J31" s="10" t="n">
         <v>6.510559</v>
       </c>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="9"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="11" t="n">
+      <c r="C32" s="10" t="n">
         <v>0.6144</v>
       </c>
-      <c r="D32" s="11" t="n">
+      <c r="D32" s="10" t="n">
         <v>0.8008</v>
       </c>
-      <c r="E32" s="11" t="n">
+      <c r="E32" s="10" t="n">
         <v>0.6145</v>
       </c>
-      <c r="F32" s="11" t="n">
+      <c r="F32" s="10" t="n">
         <v>0.9967297</v>
       </c>
-      <c r="G32" s="11" t="n">
+      <c r="G32" s="10" t="n">
         <v>514.6483</v>
       </c>
-      <c r="H32" s="11" t="n">
+      <c r="H32" s="10" t="n">
         <v>459.1906</v>
       </c>
-      <c r="I32" s="11" t="n">
+      <c r="I32" s="10" t="n">
         <v>597.5392</v>
       </c>
-      <c r="J32" s="11" t="n">
+      <c r="J32" s="10" t="n">
         <v>101.6698</v>
       </c>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="11" t="n">
+      <c r="C33" s="10" t="n">
         <v>0.741</v>
       </c>
-      <c r="D33" s="11" t="n">
+      <c r="D33" s="10" t="n">
         <v>0.9386</v>
       </c>
-      <c r="E33" s="11" t="n">
+      <c r="E33" s="10" t="n">
         <v>0.8031</v>
       </c>
-      <c r="F33" s="11" t="n">
+      <c r="F33" s="10" t="n">
         <v>0.9782928</v>
       </c>
-      <c r="G33" s="11" t="n">
+      <c r="G33" s="10" t="n">
         <v>310.4718</v>
       </c>
-      <c r="H33" s="11" t="n">
+      <c r="H33" s="10" t="n">
         <v>240.481</v>
       </c>
-      <c r="I33" s="11" t="n">
+      <c r="I33" s="10" t="n">
         <v>316.8994</v>
       </c>
-      <c r="J33" s="11" t="n">
+      <c r="J33" s="10" t="n">
         <v>188.5139</v>
       </c>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="9"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="11" t="n">
+      <c r="C34" s="10" t="n">
         <v>0.7769</v>
       </c>
-      <c r="D34" s="11" t="n">
+      <c r="D34" s="10" t="n">
         <v>0.9269</v>
       </c>
-      <c r="E34" s="11" t="n">
+      <c r="E34" s="10" t="n">
         <v>0.7907</v>
       </c>
-      <c r="F34" s="11" t="n">
+      <c r="F34" s="10" t="n">
         <v>0.9848246</v>
       </c>
-      <c r="G34" s="11" t="n">
+      <c r="G34" s="10" t="n">
         <v>147.4695</v>
       </c>
-      <c r="H34" s="11" t="n">
+      <c r="H34" s="10" t="n">
         <v>93.69422</v>
       </c>
-      <c r="I34" s="11" t="n">
+      <c r="I34" s="10" t="n">
         <v>314.912</v>
       </c>
-      <c r="J34" s="11" t="n">
+      <c r="J34" s="10" t="n">
         <v>15.07545</v>
       </c>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="11" t="n">
+      <c r="C35" s="10" t="n">
         <v>0.7801</v>
       </c>
-      <c r="D35" s="11" t="n">
+      <c r="D35" s="10" t="n">
         <v>0.9117</v>
       </c>
-      <c r="E35" s="11" t="n">
+      <c r="E35" s="10" t="n">
         <v>0.7958</v>
       </c>
-      <c r="F35" s="11" t="n">
+      <c r="F35" s="10" t="n">
         <v>0.9878861</v>
       </c>
-      <c r="G35" s="11" t="n">
+      <c r="G35" s="10" t="n">
         <v>133.4999</v>
       </c>
-      <c r="H35" s="11" t="n">
+      <c r="H35" s="10" t="n">
         <v>89.85711</v>
       </c>
-      <c r="I35" s="11" t="n">
+      <c r="I35" s="10" t="n">
         <v>313.005</v>
       </c>
-      <c r="J35" s="11" t="n">
+      <c r="J35" s="10" t="n">
         <v>-9.438126</v>
       </c>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="9"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="11" t="n">
+      <c r="C36" s="10" t="n">
         <v>0.8955</v>
       </c>
-      <c r="D36" s="11" t="n">
+      <c r="D36" s="10" t="n">
         <v>0.9093</v>
       </c>
-      <c r="E36" s="11" t="n">
+      <c r="E36" s="10" t="n">
         <v>0.6542</v>
       </c>
-      <c r="F36" s="11" t="n">
+      <c r="F36" s="10" t="n">
         <v>0.9544299</v>
       </c>
-      <c r="G36" s="11" t="n">
+      <c r="G36" s="10" t="n">
         <v>211.8659</v>
       </c>
-      <c r="H36" s="11" t="n">
+      <c r="H36" s="10" t="n">
         <v>207.6578</v>
       </c>
-      <c r="I36" s="11" t="n">
+      <c r="I36" s="10" t="n">
         <v>300.4579</v>
       </c>
-      <c r="J36" s="11" t="n">
+      <c r="J36" s="10" t="n">
         <v>177.3575</v>
       </c>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="11" t="n">
+      <c r="C37" s="10" t="n">
         <v>0.8382</v>
       </c>
-      <c r="D37" s="11" t="n">
+      <c r="D37" s="10" t="n">
         <v>0.8398</v>
       </c>
-      <c r="E37" s="11" t="n">
+      <c r="E37" s="10" t="n">
         <v>0.6836</v>
       </c>
-      <c r="F37" s="11" t="n">
+      <c r="F37" s="10" t="n">
         <v>0.9729294</v>
       </c>
-      <c r="G37" s="11" t="n">
+      <c r="G37" s="10" t="n">
         <v>208.0271</v>
       </c>
-      <c r="H37" s="11" t="n">
+      <c r="H37" s="10" t="n">
         <v>209.5818</v>
       </c>
-      <c r="I37" s="11" t="n">
+      <c r="I37" s="10" t="n">
         <v>294.1247</v>
       </c>
-      <c r="J37" s="11" t="n">
+      <c r="J37" s="10" t="n">
         <v>131.3484</v>
       </c>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="11" t="n">
+      <c r="C38" s="10" t="n">
         <v>0.822</v>
       </c>
-      <c r="D38" s="11" t="n">
+      <c r="D38" s="10" t="n">
         <v>0.822</v>
       </c>
-      <c r="E38" s="12" t="n">
+      <c r="E38" s="11" t="n">
         <v>0.6764</v>
       </c>
-      <c r="F38" s="11" t="n">
+      <c r="F38" s="10" t="n">
         <v>0.9801323</v>
       </c>
-      <c r="G38" s="11" t="n">
+      <c r="G38" s="10" t="n">
         <v>265.6026</v>
       </c>
-      <c r="H38" s="11" t="n">
+      <c r="H38" s="10" t="n">
         <v>267.6007</v>
       </c>
-      <c r="I38" s="11" t="n">
+      <c r="I38" s="10" t="n">
         <v>297.4515</v>
       </c>
-      <c r="J38" s="11" t="n">
+      <c r="J38" s="10" t="n">
         <v>171.1337</v>
       </c>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="11" t="n">
+      <c r="C39" s="10" t="n">
         <v>0.7037</v>
       </c>
-      <c r="D39" s="11" t="n">
+      <c r="D39" s="10" t="n">
         <v>0.7074</v>
       </c>
-      <c r="E39" s="11" t="n">
+      <c r="E39" s="10" t="n">
         <v>0.7403</v>
       </c>
-      <c r="F39" s="11" t="n">
+      <c r="F39" s="10" t="n">
         <v>0.9375536</v>
       </c>
-      <c r="G39" s="11" t="n">
+      <c r="G39" s="10" t="n">
         <v>222.3401</v>
       </c>
-      <c r="H39" s="11" t="n">
+      <c r="H39" s="10" t="n">
         <v>223.8362</v>
       </c>
-      <c r="I39" s="11" t="n">
+      <c r="I39" s="10" t="n">
         <v>270.779</v>
       </c>
-      <c r="J39" s="11" t="n">
+      <c r="J39" s="10" t="n">
         <v>160.5052</v>
       </c>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="9"/>
-      <c r="Z39" s="9"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="11" t="n">
+      <c r="C40" s="10" t="n">
         <v>0.8384</v>
       </c>
-      <c r="D40" s="11" t="n">
+      <c r="D40" s="10" t="n">
         <v>0.8401</v>
       </c>
-      <c r="E40" s="11" t="n">
+      <c r="E40" s="10" t="n">
         <v>0.7238</v>
       </c>
-      <c r="F40" s="11" t="n">
+      <c r="F40" s="10" t="n">
         <v>0.9423692</v>
       </c>
-      <c r="G40" s="11" t="n">
+      <c r="G40" s="10" t="n">
         <v>87.3334</v>
       </c>
-      <c r="H40" s="11" t="n">
+      <c r="H40" s="10" t="n">
         <v>88.88912</v>
       </c>
-      <c r="I40" s="11" t="n">
+      <c r="I40" s="10" t="n">
         <v>269.9674</v>
       </c>
-      <c r="J40" s="11" t="n">
+      <c r="J40" s="10" t="n">
         <v>47.05422</v>
       </c>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="9"/>
-      <c r="Z40" s="9"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="11" t="n">
+      <c r="C41" s="10" t="n">
         <v>0.8158</v>
       </c>
-      <c r="D41" s="11" t="n">
+      <c r="D41" s="10" t="n">
         <v>0.831</v>
       </c>
-      <c r="E41" s="11" t="n">
+      <c r="E41" s="10" t="n">
         <v>0.743</v>
       </c>
-      <c r="F41" s="11" t="n">
+      <c r="F41" s="10" t="n">
         <v>0.9463828</v>
       </c>
-      <c r="G41" s="11" t="n">
+      <c r="G41" s="10" t="n">
         <v>93.1582</v>
       </c>
-      <c r="H41" s="11" t="n">
+      <c r="H41" s="10" t="n">
         <v>91.5609</v>
       </c>
-      <c r="I41" s="11" t="n">
+      <c r="I41" s="10" t="n">
         <v>266.0516</v>
       </c>
-      <c r="J41" s="11" t="n">
+      <c r="J41" s="10" t="n">
         <v>44.56638</v>
       </c>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="9"/>
-      <c r="Z41" s="9"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="11" t="n">
+      <c r="C42" s="10" t="n">
         <v>0.7542</v>
       </c>
-      <c r="D42" s="11" t="n">
+      <c r="D42" s="10" t="n">
         <v>0.7729</v>
       </c>
-      <c r="E42" s="11" t="n">
+      <c r="E42" s="10" t="n">
         <v>0.4483</v>
       </c>
-      <c r="F42" s="11" t="n">
+      <c r="F42" s="10" t="n">
         <v>0.7808672</v>
       </c>
-      <c r="G42" s="11" t="n">
+      <c r="G42" s="10" t="n">
         <v>171.9544</v>
       </c>
-      <c r="H42" s="11" t="n">
+      <c r="H42" s="10" t="n">
         <v>171.503</v>
       </c>
-      <c r="I42" s="11" t="n">
+      <c r="I42" s="10" t="n">
         <v>213.861</v>
       </c>
-      <c r="J42" s="11" t="n">
+      <c r="J42" s="10" t="n">
         <v>170.3923</v>
       </c>
-      <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
-      <c r="W42" s="9"/>
-      <c r="X42" s="9"/>
-      <c r="Y42" s="9"/>
-      <c r="Z42" s="9"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="11" t="n">
+      <c r="C43" s="10" t="n">
         <v>0.8205</v>
       </c>
-      <c r="D43" s="11" t="n">
+      <c r="D43" s="10" t="n">
         <v>0.8257</v>
       </c>
-      <c r="E43" s="11" t="n">
+      <c r="E43" s="10" t="n">
         <v>0.4461</v>
       </c>
-      <c r="F43" s="11" t="n">
+      <c r="F43" s="10" t="n">
         <v>0.8225594</v>
       </c>
-      <c r="G43" s="11" t="n">
+      <c r="G43" s="10" t="n">
         <v>60.77947</v>
       </c>
-      <c r="H43" s="11" t="n">
+      <c r="H43" s="10" t="n">
         <v>61.85824</v>
       </c>
-      <c r="I43" s="11" t="n">
+      <c r="I43" s="10" t="n">
         <v>210.392</v>
       </c>
-      <c r="J43" s="11" t="n">
+      <c r="J43" s="10" t="n">
         <v>62.42016</v>
       </c>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="9"/>
-      <c r="Y43" s="9"/>
-      <c r="Z43" s="9"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="11" t="n">
+      <c r="C44" s="10" t="n">
         <v>0.7388</v>
       </c>
-      <c r="D44" s="11" t="n">
+      <c r="D44" s="10" t="n">
         <v>0.739</v>
       </c>
-      <c r="E44" s="11" t="n">
+      <c r="E44" s="10" t="n">
         <v>0.4516</v>
       </c>
-      <c r="F44" s="11" t="n">
+      <c r="F44" s="10" t="n">
         <v>0.7556399</v>
       </c>
-      <c r="G44" s="11" t="n">
+      <c r="G44" s="10" t="n">
         <v>84.88549</v>
       </c>
-      <c r="H44" s="11" t="n">
+      <c r="H44" s="10" t="n">
         <v>86.85909</v>
       </c>
-      <c r="I44" s="11" t="n">
+      <c r="I44" s="10" t="n">
         <v>210.1314</v>
       </c>
-      <c r="J44" s="11" t="n">
+      <c r="J44" s="10" t="n">
         <v>84.81877</v>
       </c>
-      <c r="U44" s="9"/>
-      <c r="V44" s="9"/>
-      <c r="W44" s="9"/>
-      <c r="X44" s="9"/>
-      <c r="Y44" s="9"/>
-      <c r="Z44" s="9"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="11" t="n">
+      <c r="C45" s="10" t="n">
         <v>0.4176</v>
       </c>
-      <c r="D45" s="11" t="n">
+      <c r="D45" s="10" t="n">
         <v>0.7546</v>
       </c>
-      <c r="E45" s="11" t="n">
+      <c r="E45" s="10" t="n">
         <v>0.425</v>
       </c>
-      <c r="F45" s="11" t="n">
+      <c r="F45" s="10" t="n">
         <v>0.9479628</v>
       </c>
-      <c r="G45" s="11" t="n">
+      <c r="G45" s="10" t="n">
         <v>623.1898</v>
       </c>
-      <c r="H45" s="11" t="n">
+      <c r="H45" s="10" t="n">
         <v>513.7218</v>
       </c>
-      <c r="I45" s="11" t="n">
+      <c r="I45" s="10" t="n">
         <v>880.9507</v>
       </c>
-      <c r="J45" s="11" t="n">
+      <c r="J45" s="10" t="n">
         <v>313.6363</v>
       </c>
-      <c r="U45" s="9"/>
-      <c r="V45" s="9"/>
-      <c r="W45" s="9"/>
-      <c r="X45" s="9"/>
-      <c r="Y45" s="9"/>
-      <c r="Z45" s="9"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="11" t="n">
+      <c r="C46" s="10" t="n">
         <v>0.4085</v>
       </c>
-      <c r="D46" s="11" t="n">
+      <c r="D46" s="10" t="n">
         <v>0.7362</v>
       </c>
-      <c r="E46" s="11" t="n">
+      <c r="E46" s="10" t="n">
         <v>0.4249</v>
       </c>
-      <c r="F46" s="11" t="n">
+      <c r="F46" s="10" t="n">
         <v>0.9291621</v>
       </c>
-      <c r="G46" s="11" t="n">
+      <c r="G46" s="10" t="n">
         <v>281.6883</v>
       </c>
-      <c r="H46" s="11" t="n">
+      <c r="H46" s="10" t="n">
         <v>179.5355</v>
       </c>
-      <c r="I46" s="11" t="n">
+      <c r="I46" s="10" t="n">
         <v>866.7949</v>
       </c>
-      <c r="J46" s="11" t="n">
+      <c r="J46" s="10" t="n">
         <v>9.907198</v>
       </c>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="9"/>
-      <c r="Z46" s="9"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="11" t="n">
+      <c r="C47" s="10" t="n">
         <v>0.4175</v>
       </c>
-      <c r="D47" s="11" t="n">
+      <c r="D47" s="10" t="n">
         <v>0.7382</v>
       </c>
-      <c r="E47" s="11" t="n">
+      <c r="E47" s="10" t="n">
         <v>0.4247</v>
       </c>
-      <c r="F47" s="11" t="n">
+      <c r="F47" s="10" t="n">
         <v>0.964378</v>
       </c>
-      <c r="G47" s="11" t="n">
+      <c r="G47" s="10" t="n">
         <v>364.7526</v>
       </c>
-      <c r="H47" s="11" t="n">
+      <c r="H47" s="10" t="n">
         <v>263.5701</v>
       </c>
-      <c r="I47" s="11" t="n">
+      <c r="I47" s="10" t="n">
         <v>870.7128</v>
       </c>
-      <c r="J47" s="11" t="n">
+      <c r="J47" s="10" t="n">
         <v>6.285952</v>
       </c>
-      <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
-      <c r="W47" s="9"/>
-      <c r="X47" s="9"/>
-      <c r="Y47" s="9"/>
-      <c r="Z47" s="9"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="8"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="11" t="n">
+      <c r="C48" s="10" t="n">
         <v>0.6583</v>
       </c>
-      <c r="D48" s="11" t="n">
+      <c r="D48" s="10" t="n">
         <v>0.745</v>
       </c>
-      <c r="E48" s="11" t="n">
+      <c r="E48" s="10" t="n">
         <v>0.3557</v>
       </c>
-      <c r="F48" s="11" t="n">
+      <c r="F48" s="10" t="n">
         <v>0.8348539</v>
       </c>
-      <c r="G48" s="11" t="n">
+      <c r="G48" s="10" t="n">
         <v>303.7343</v>
       </c>
-      <c r="H48" s="11" t="n">
+      <c r="H48" s="10" t="n">
         <v>287.8666</v>
       </c>
-      <c r="I48" s="11" t="n">
+      <c r="I48" s="10" t="n">
         <v>415.2452</v>
       </c>
-      <c r="J48" s="11" t="n">
+      <c r="J48" s="10" t="n">
         <v>261.3751</v>
       </c>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
-      <c r="X48" s="9"/>
-      <c r="Y48" s="9"/>
-      <c r="Z48" s="9"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="11" t="n">
+      <c r="C49" s="10" t="n">
         <v>0.905</v>
       </c>
-      <c r="D49" s="11" t="n">
+      <c r="D49" s="10" t="n">
         <v>0.9051</v>
       </c>
-      <c r="E49" s="11" t="n">
+      <c r="E49" s="10" t="n">
         <v>0.4032</v>
       </c>
-      <c r="F49" s="11" t="n">
+      <c r="F49" s="10" t="n">
         <v>0.9172467</v>
       </c>
-      <c r="G49" s="11" t="n">
+      <c r="G49" s="10" t="n">
         <v>88.93059</v>
       </c>
-      <c r="H49" s="11" t="n">
+      <c r="H49" s="10" t="n">
         <v>90.9035</v>
       </c>
-      <c r="I49" s="11" t="n">
+      <c r="I49" s="10" t="n">
         <v>402.347</v>
       </c>
-      <c r="J49" s="11" t="n">
+      <c r="J49" s="10" t="n">
         <v>82.53382</v>
       </c>
-      <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
-      <c r="X49" s="9"/>
-      <c r="Y49" s="9"/>
-      <c r="Z49" s="9"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="11" t="n">
+      <c r="C50" s="10" t="n">
         <v>0.5118</v>
       </c>
-      <c r="D50" s="11" t="n">
+      <c r="D50" s="10" t="n">
         <v>0.7019</v>
       </c>
-      <c r="E50" s="11" t="n">
+      <c r="E50" s="10" t="n">
         <v>0.35</v>
       </c>
-      <c r="F50" s="11" t="n">
+      <c r="F50" s="10" t="n">
         <v>0.9063161</v>
       </c>
-      <c r="G50" s="11" t="n">
+      <c r="G50" s="10" t="n">
         <v>182.1682</v>
       </c>
-      <c r="H50" s="11" t="n">
+      <c r="H50" s="10" t="n">
         <v>154.065</v>
       </c>
-      <c r="I50" s="11" t="n">
+      <c r="I50" s="10" t="n">
         <v>410.2842</v>
       </c>
-      <c r="J50" s="11" t="n">
+      <c r="J50" s="10" t="n">
         <v>83.46356</v>
       </c>
-      <c r="U50" s="9"/>
-      <c r="V50" s="9"/>
-      <c r="W50" s="9"/>
-      <c r="X50" s="9"/>
-      <c r="Y50" s="9"/>
-      <c r="Z50" s="9"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="11" t="n">
+      <c r="C51" s="10" t="n">
         <v>0.2565</v>
       </c>
-      <c r="D51" s="11" t="n">
+      <c r="D51" s="10" t="n">
         <v>0.4944</v>
       </c>
-      <c r="E51" s="11" t="n">
+      <c r="E51" s="10" t="n">
         <v>0.156</v>
       </c>
-      <c r="F51" s="11" t="n">
+      <c r="F51" s="10" t="n">
         <v>0.3903787</v>
       </c>
-      <c r="G51" s="11" t="n">
+      <c r="G51" s="10" t="n">
         <v>50.33744</v>
       </c>
-      <c r="H51" s="11" t="n">
+      <c r="H51" s="10" t="n">
         <v>47.70955</v>
       </c>
-      <c r="I51" s="11" t="n">
+      <c r="I51" s="10" t="n">
         <v>83.54186</v>
       </c>
-      <c r="J51" s="11" t="n">
+      <c r="J51" s="10" t="n">
         <v>49.95518</v>
       </c>
-      <c r="U51" s="9"/>
-      <c r="V51" s="9"/>
-      <c r="W51" s="9"/>
-      <c r="X51" s="9"/>
-      <c r="Y51" s="9"/>
-      <c r="Z51" s="9"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="8"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="11" t="n">
+      <c r="C52" s="10" t="n">
         <v>0.9804</v>
       </c>
-      <c r="D52" s="11" t="n">
+      <c r="D52" s="10" t="n">
         <v>0.9804</v>
       </c>
-      <c r="E52" s="11" t="n">
+      <c r="E52" s="10" t="n">
         <v>0.372</v>
       </c>
-      <c r="F52" s="11" t="n">
+      <c r="F52" s="10" t="n">
         <v>0.9745247</v>
       </c>
-      <c r="G52" s="11" t="n">
+      <c r="G52" s="10" t="n">
         <v>-28.98534</v>
       </c>
-      <c r="H52" s="11" t="n">
+      <c r="H52" s="10" t="n">
         <v>-31.42661</v>
       </c>
-      <c r="I52" s="11" t="n">
+      <c r="I52" s="10" t="n">
         <v>78.02821</v>
       </c>
-      <c r="J52" s="11" t="n">
+      <c r="J52" s="10" t="n">
         <v>-28.27714</v>
       </c>
-      <c r="U52" s="9"/>
-      <c r="V52" s="9"/>
-      <c r="W52" s="9"/>
-      <c r="X52" s="9"/>
-      <c r="Y52" s="9"/>
-      <c r="Z52" s="9"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="11" t="n">
+      <c r="C53" s="10" t="n">
         <v>0.9805</v>
       </c>
-      <c r="D53" s="11" t="n">
+      <c r="D53" s="10" t="n">
         <v>0.9805</v>
       </c>
-      <c r="E53" s="11" t="n">
+      <c r="E53" s="10" t="n">
         <v>0.3669</v>
       </c>
-      <c r="F53" s="11" t="n">
+      <c r="F53" s="10" t="n">
         <v>0.96305</v>
       </c>
-      <c r="G53" s="11" t="n">
+      <c r="G53" s="10" t="n">
         <v>-34.11585</v>
       </c>
-      <c r="H53" s="11" t="n">
+      <c r="H53" s="10" t="n">
         <v>-32.11696</v>
       </c>
-      <c r="I53" s="11" t="n">
+      <c r="I53" s="10" t="n">
         <v>78.23388</v>
       </c>
-      <c r="J53" s="11" t="n">
+      <c r="J53" s="10" t="n">
         <v>-28.27714</v>
       </c>
-      <c r="U53" s="9"/>
-      <c r="V53" s="9"/>
-      <c r="W53" s="9"/>
-      <c r="X53" s="9"/>
-      <c r="Y53" s="9"/>
-      <c r="Z53" s="9"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="11" t="n">
+      <c r="C54" s="10" t="n">
         <v>0.84</v>
       </c>
-      <c r="D54" s="11" t="n">
+      <c r="D54" s="10" t="n">
         <v>0.845</v>
       </c>
-      <c r="E54" s="11" t="n">
+      <c r="E54" s="10" t="n">
         <v>0.6071</v>
       </c>
-      <c r="F54" s="11" t="n">
+      <c r="F54" s="10" t="n">
         <v>0.8817825</v>
       </c>
-      <c r="G54" s="11" t="n">
+      <c r="G54" s="10" t="n">
         <v>304.9475</v>
       </c>
-      <c r="H54" s="11" t="n">
+      <c r="H54" s="10" t="n">
         <v>305.0838</v>
       </c>
-      <c r="I54" s="11" t="n">
+      <c r="I54" s="10" t="n">
         <v>396.5089</v>
       </c>
-      <c r="J54" s="11" t="n">
+      <c r="J54" s="10" t="n">
         <v>289.3822</v>
       </c>
-      <c r="U54" s="9"/>
-      <c r="V54" s="9"/>
-      <c r="W54" s="9"/>
-      <c r="X54" s="9"/>
-      <c r="Y54" s="9"/>
-      <c r="Z54" s="9"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="11" t="n">
+      <c r="C55" s="10" t="n">
         <v>0.735</v>
       </c>
-      <c r="D55" s="11" t="n">
+      <c r="D55" s="10" t="n">
         <v>0.8686</v>
       </c>
-      <c r="E55" s="11" t="n">
+      <c r="E55" s="10" t="n">
         <v>0.5827</v>
       </c>
-      <c r="F55" s="11" t="n">
+      <c r="F55" s="10" t="n">
         <v>0.9549745</v>
       </c>
-      <c r="G55" s="11" t="n">
+      <c r="G55" s="10" t="n">
         <v>290.4672</v>
       </c>
-      <c r="H55" s="11" t="n">
+      <c r="H55" s="10" t="n">
         <v>251.7665</v>
       </c>
-      <c r="I55" s="11" t="n">
+      <c r="I55" s="10" t="n">
         <v>399.8936</v>
       </c>
-      <c r="J55" s="11" t="n">
+      <c r="J55" s="10" t="n">
         <v>189.6637</v>
       </c>
-      <c r="U55" s="9"/>
-      <c r="V55" s="9"/>
-      <c r="W55" s="9"/>
-      <c r="X55" s="9"/>
-      <c r="Y55" s="9"/>
-      <c r="Z55" s="9"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="8"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="11" t="n">
+      <c r="C56" s="10" t="n">
         <v>0.6945</v>
       </c>
-      <c r="D56" s="11" t="n">
+      <c r="D56" s="10" t="n">
         <v>0.8445</v>
       </c>
-      <c r="E56" s="11" t="n">
+      <c r="E56" s="10" t="n">
         <v>0.5805</v>
       </c>
-      <c r="F56" s="11" t="n">
+      <c r="F56" s="10" t="n">
         <v>0.9708881</v>
       </c>
-      <c r="G56" s="11" t="n">
+      <c r="G56" s="10" t="n">
         <v>368.4352</v>
       </c>
-      <c r="H56" s="11" t="n">
+      <c r="H56" s="10" t="n">
         <v>331.2614</v>
       </c>
-      <c r="I56" s="11" t="n">
+      <c r="I56" s="10" t="n">
         <v>402.9399</v>
       </c>
-      <c r="J56" s="11" t="n">
+      <c r="J56" s="10" t="n">
         <v>234.0848</v>
       </c>
-      <c r="U56" s="9"/>
-      <c r="V56" s="9"/>
-      <c r="W56" s="9"/>
-      <c r="X56" s="9"/>
-      <c r="Y56" s="9"/>
-      <c r="Z56" s="9"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="8"/>
+      <c r="X56" s="8"/>
+      <c r="Y56" s="8"/>
+      <c r="Z56" s="8"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C57" s="11" t="n">
+      <c r="C57" s="10" t="n">
         <v>0.808</v>
       </c>
-      <c r="D57" s="11" t="n">
+      <c r="D57" s="10" t="n">
         <v>0.8392</v>
       </c>
-      <c r="E57" s="11" t="n">
+      <c r="E57" s="10" t="n">
         <v>0.756</v>
       </c>
-      <c r="F57" s="11" t="n">
+      <c r="F57" s="10" t="n">
         <v>0.9252865</v>
       </c>
-      <c r="G57" s="11" t="n">
+      <c r="G57" s="10" t="n">
         <v>415.5057</v>
       </c>
-      <c r="H57" s="11" t="n">
+      <c r="H57" s="10" t="n">
         <v>402.9434</v>
       </c>
-      <c r="I57" s="11" t="n">
+      <c r="I57" s="10" t="n">
         <v>540.6539</v>
       </c>
-      <c r="J57" s="11" t="n">
+      <c r="J57" s="10" t="n">
         <v>340.1142</v>
       </c>
-      <c r="U57" s="9"/>
-      <c r="V57" s="9"/>
-      <c r="W57" s="9"/>
-      <c r="X57" s="9"/>
-      <c r="Y57" s="9"/>
-      <c r="Z57" s="9"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="8"/>
+      <c r="X57" s="8"/>
+      <c r="Y57" s="8"/>
+      <c r="Z57" s="8"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C58" s="11" t="n">
+      <c r="C58" s="10" t="n">
         <v>0.6668</v>
       </c>
-      <c r="D58" s="11" t="n">
+      <c r="D58" s="10" t="n">
         <v>0.8271</v>
       </c>
-      <c r="E58" s="11" t="n">
+      <c r="E58" s="10" t="n">
         <v>0.789</v>
       </c>
-      <c r="F58" s="11" t="n">
+      <c r="F58" s="10" t="n">
         <v>0.9939161</v>
       </c>
-      <c r="G58" s="11" t="n">
+      <c r="G58" s="10" t="n">
         <v>430.8041</v>
       </c>
-      <c r="H58" s="11" t="n">
+      <c r="H58" s="10" t="n">
         <v>379.0043</v>
       </c>
-      <c r="I58" s="11" t="n">
+      <c r="I58" s="10" t="n">
         <v>521.2299</v>
       </c>
-      <c r="J58" s="11" t="n">
+      <c r="J58" s="10" t="n">
         <v>104.5496</v>
       </c>
-      <c r="U58" s="9"/>
-      <c r="V58" s="9"/>
-      <c r="W58" s="9"/>
-      <c r="X58" s="9"/>
-      <c r="Y58" s="9"/>
-      <c r="Z58" s="9"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="8"/>
+      <c r="X58" s="8"/>
+      <c r="Y58" s="8"/>
+      <c r="Z58" s="8"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="11" t="n">
+      <c r="C59" s="10" t="n">
         <v>0.658</v>
       </c>
-      <c r="D59" s="11" t="n">
+      <c r="D59" s="10" t="n">
         <v>0.8226</v>
       </c>
-      <c r="E59" s="11" t="n">
+      <c r="E59" s="10" t="n">
         <v>0.7917</v>
       </c>
-      <c r="F59" s="11" t="n">
+      <c r="F59" s="10" t="n">
         <v>0.9929181</v>
       </c>
-      <c r="G59" s="11" t="n">
+      <c r="G59" s="10" t="n">
         <v>535.9802</v>
       </c>
-      <c r="H59" s="11" t="n">
+      <c r="H59" s="10" t="n">
         <v>484.1761</v>
       </c>
-      <c r="I59" s="11" t="n">
+      <c r="I59" s="10" t="n">
         <v>523.7523</v>
       </c>
-      <c r="J59" s="11" t="n">
+      <c r="J59" s="10" t="n">
         <v>220.0427</v>
       </c>
-      <c r="U59" s="9"/>
-      <c r="V59" s="9"/>
-      <c r="W59" s="9"/>
-      <c r="X59" s="9"/>
-      <c r="Y59" s="9"/>
-      <c r="Z59" s="9"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="8"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="11" t="n">
+      <c r="C60" s="10" t="n">
         <v>0.7688</v>
       </c>
-      <c r="D60" s="11" t="n">
+      <c r="D60" s="10" t="n">
         <v>0.816</v>
       </c>
-      <c r="E60" s="11" t="n">
+      <c r="E60" s="10" t="n">
         <v>0.2068</v>
       </c>
-      <c r="F60" s="11" t="n">
+      <c r="F60" s="10" t="n">
         <v>0.7960234</v>
       </c>
-      <c r="G60" s="11" t="n">
+      <c r="G60" s="10" t="n">
         <v>248.5742</v>
       </c>
-      <c r="H60" s="11" t="n">
+      <c r="H60" s="10" t="n">
         <v>240.068</v>
       </c>
-      <c r="I60" s="11" t="n">
+      <c r="I60" s="10" t="n">
         <v>297.3471</v>
       </c>
-      <c r="J60" s="12" t="n">
+      <c r="J60" s="11" t="n">
         <v>244.813</v>
       </c>
-      <c r="U60" s="8"/>
-      <c r="V60" s="9"/>
-      <c r="W60" s="9"/>
-      <c r="X60" s="9"/>
-      <c r="Y60" s="9"/>
-      <c r="Z60" s="9"/>
+      <c r="U60" s="7"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="8"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="8"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="11" t="n">
+      <c r="C61" s="10" t="n">
         <v>0.937</v>
       </c>
-      <c r="D61" s="11" t="n">
+      <c r="D61" s="10" t="n">
         <v>0.9568</v>
       </c>
-      <c r="E61" s="11" t="n">
+      <c r="E61" s="10" t="n">
         <v>0.2806</v>
       </c>
-      <c r="F61" s="11" t="n">
+      <c r="F61" s="10" t="n">
         <v>0.9645992</v>
       </c>
-      <c r="G61" s="11" t="n">
+      <c r="G61" s="10" t="n">
         <v>93.4754</v>
       </c>
-      <c r="H61" s="11" t="n">
+      <c r="H61" s="10" t="n">
         <v>78.11683</v>
       </c>
-      <c r="I61" s="11" t="n">
+      <c r="I61" s="10" t="n">
         <v>286.1676</v>
       </c>
-      <c r="J61" s="11" t="n">
+      <c r="J61" s="10" t="n">
         <v>68.92776</v>
       </c>
-      <c r="U61" s="8"/>
-      <c r="V61" s="9"/>
-      <c r="W61" s="9"/>
-      <c r="X61" s="9"/>
-      <c r="Y61" s="9"/>
-      <c r="Z61" s="9"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="8"/>
+      <c r="X61" s="8"/>
+      <c r="Y61" s="8"/>
+      <c r="Z61" s="8"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="11" t="n">
+      <c r="C62" s="10" t="n">
         <v>0.7859</v>
       </c>
-      <c r="D62" s="11" t="n">
+      <c r="D62" s="10" t="n">
         <v>0.887</v>
       </c>
-      <c r="E62" s="11" t="n">
+      <c r="E62" s="10" t="n">
         <v>0.2875</v>
       </c>
-      <c r="F62" s="11" t="n">
+      <c r="F62" s="10" t="n">
         <v>0.8955751</v>
       </c>
-      <c r="G62" s="11" t="n">
+      <c r="G62" s="10" t="n">
         <v>197.9602</v>
       </c>
-      <c r="H62" s="11" t="n">
+      <c r="H62" s="10" t="n">
         <v>170.5551</v>
       </c>
-      <c r="I62" s="11" t="n">
+      <c r="I62" s="10" t="n">
         <v>286.6282</v>
       </c>
-      <c r="J62" s="11" t="n">
+      <c r="J62" s="10" t="n">
         <v>166.932</v>
       </c>
-      <c r="U62" s="8"/>
-      <c r="V62" s="9"/>
-      <c r="W62" s="9"/>
-      <c r="X62" s="9"/>
-      <c r="Y62" s="9"/>
-      <c r="Z62" s="9"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="8"/>
+      <c r="W62" s="8"/>
+      <c r="X62" s="8"/>
+      <c r="Y62" s="8"/>
+      <c r="Z62" s="8"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C63" s="11" t="n">
+      <c r="C63" s="10" t="n">
         <v>0.5929</v>
       </c>
-      <c r="D63" s="11" t="n">
+      <c r="D63" s="10" t="n">
         <v>0.7586</v>
       </c>
-      <c r="E63" s="11" t="n">
+      <c r="E63" s="10" t="n">
         <v>0.3743</v>
       </c>
-      <c r="F63" s="11" t="n">
+      <c r="F63" s="10" t="n">
         <v>0.9243245</v>
       </c>
-      <c r="G63" s="11" t="n">
+      <c r="G63" s="10" t="n">
         <v>243.9625</v>
       </c>
-      <c r="H63" s="11" t="n">
+      <c r="H63" s="10" t="n">
         <v>223.4819</v>
       </c>
-      <c r="I63" s="11" t="n">
+      <c r="I63" s="10" t="n">
         <v>296.1685</v>
       </c>
-      <c r="J63" s="11" t="n">
+      <c r="J63" s="10" t="n">
         <v>173.607</v>
       </c>
-      <c r="U63" s="9"/>
-      <c r="V63" s="9"/>
-      <c r="W63" s="9"/>
-      <c r="X63" s="9"/>
-      <c r="Y63" s="9"/>
-      <c r="Z63" s="9"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="8"/>
+      <c r="W63" s="8"/>
+      <c r="X63" s="8"/>
+      <c r="Y63" s="8"/>
+      <c r="Z63" s="8"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C64" s="11" t="n">
+      <c r="C64" s="10" t="n">
         <v>0.617</v>
       </c>
-      <c r="D64" s="11" t="n">
+      <c r="D64" s="10" t="n">
         <v>0.745</v>
       </c>
-      <c r="E64" s="11" t="n">
+      <c r="E64" s="10" t="n">
         <v>0.3776</v>
       </c>
-      <c r="F64" s="11" t="n">
+      <c r="F64" s="10" t="n">
         <v>0.9099368</v>
       </c>
-      <c r="G64" s="11" t="n">
+      <c r="G64" s="10" t="n">
         <v>212.6797</v>
       </c>
-      <c r="H64" s="11" t="n">
+      <c r="H64" s="10" t="n">
         <v>197.1876</v>
       </c>
-      <c r="I64" s="11" t="n">
+      <c r="I64" s="10" t="n">
         <v>294.7314</v>
       </c>
-      <c r="J64" s="11" t="n">
+      <c r="J64" s="10" t="n">
         <v>152.4353</v>
       </c>
-      <c r="U64" s="9"/>
-      <c r="V64" s="9"/>
-      <c r="W64" s="9"/>
-      <c r="X64" s="9"/>
-      <c r="Y64" s="9"/>
-      <c r="Z64" s="9"/>
+      <c r="U64" s="8"/>
+      <c r="V64" s="8"/>
+      <c r="W64" s="8"/>
+      <c r="X64" s="8"/>
+      <c r="Y64" s="8"/>
+      <c r="Z64" s="8"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="11" t="n">
+      <c r="C65" s="10" t="n">
         <v>0.68</v>
       </c>
-      <c r="D65" s="11" t="n">
+      <c r="D65" s="10" t="n">
         <v>0.7486</v>
       </c>
-      <c r="E65" s="11" t="n">
+      <c r="E65" s="10" t="n">
         <v>0.3801</v>
       </c>
-      <c r="F65" s="11" t="n">
+      <c r="F65" s="10" t="n">
         <v>0.8216085</v>
       </c>
-      <c r="G65" s="11" t="n">
+      <c r="G65" s="10" t="n">
         <v>254.6076</v>
       </c>
-      <c r="H65" s="11" t="n">
+      <c r="H65" s="10" t="n">
         <v>246.2293</v>
       </c>
-      <c r="I65" s="11" t="n">
+      <c r="I65" s="10" t="n">
         <v>296.3275</v>
       </c>
-      <c r="J65" s="11" t="n">
+      <c r="J65" s="10" t="n">
         <v>231.4767</v>
       </c>
-      <c r="U65" s="9"/>
-      <c r="V65" s="9"/>
-      <c r="W65" s="9"/>
-      <c r="X65" s="9"/>
-      <c r="Y65" s="9"/>
-      <c r="Z65" s="9"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
+      <c r="W65" s="8"/>
+      <c r="X65" s="8"/>
+      <c r="Y65" s="8"/>
+      <c r="Z65" s="8"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="11" t="n">
+      <c r="C66" s="10" t="n">
         <v>0.6355</v>
       </c>
-      <c r="D66" s="11" t="n">
+      <c r="D66" s="10" t="n">
         <v>0.8649</v>
       </c>
-      <c r="E66" s="11" t="n">
+      <c r="E66" s="10" t="n">
         <v>0.6231</v>
       </c>
-      <c r="F66" s="11" t="n">
+      <c r="F66" s="10" t="n">
         <v>0.9889169</v>
       </c>
-      <c r="G66" s="11" t="n">
+      <c r="G66" s="10" t="n">
         <v>223.0524</v>
       </c>
-      <c r="H66" s="11" t="n">
+      <c r="H66" s="10" t="n">
         <v>184.3516</v>
       </c>
-      <c r="I66" s="11" t="n">
+      <c r="I66" s="10" t="n">
         <v>283.3792</v>
       </c>
-      <c r="J66" s="11" t="n">
+      <c r="J66" s="10" t="n">
         <v>81.83947</v>
       </c>
-      <c r="U66" s="9"/>
-      <c r="V66" s="9"/>
-      <c r="W66" s="9"/>
-      <c r="X66" s="9"/>
-      <c r="Y66" s="9"/>
-      <c r="Z66" s="9"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
+      <c r="W66" s="8"/>
+      <c r="X66" s="8"/>
+      <c r="Y66" s="8"/>
+      <c r="Z66" s="8"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="11" t="n">
+      <c r="C67" s="10" t="n">
         <v>0.5706</v>
       </c>
-      <c r="D67" s="11" t="n">
+      <c r="D67" s="10" t="n">
         <v>0.7559</v>
       </c>
-      <c r="E67" s="11" t="n">
+      <c r="E67" s="10" t="n">
         <v>0.6233</v>
       </c>
-      <c r="F67" s="11" t="n">
+      <c r="F67" s="10" t="n">
         <v>0.9459587</v>
       </c>
-      <c r="G67" s="11" t="n">
+      <c r="G67" s="10" t="n">
         <v>143.1647</v>
       </c>
-      <c r="H67" s="11" t="n">
+      <c r="H67" s="10" t="n">
         <v>122.003</v>
       </c>
-      <c r="I67" s="11" t="n">
+      <c r="I67" s="10" t="n">
         <v>279.5958</v>
       </c>
-      <c r="J67" s="11" t="n">
+      <c r="J67" s="10" t="n">
         <v>60.18506</v>
       </c>
-      <c r="U67" s="9"/>
-      <c r="V67" s="9"/>
-      <c r="W67" s="9"/>
-      <c r="X67" s="9"/>
-      <c r="Y67" s="9"/>
-      <c r="Z67" s="9"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="8"/>
+      <c r="W67" s="8"/>
+      <c r="X67" s="8"/>
+      <c r="Y67" s="8"/>
+      <c r="Z67" s="8"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="11" t="n">
+      <c r="C68" s="10" t="n">
         <v>0.6025</v>
       </c>
-      <c r="D68" s="11" t="n">
+      <c r="D68" s="10" t="n">
         <v>0.8057</v>
       </c>
-      <c r="E68" s="11" t="n">
+      <c r="E68" s="10" t="n">
         <v>0.6232</v>
       </c>
-      <c r="F68" s="11" t="n">
+      <c r="F68" s="10" t="n">
         <v>0.979346</v>
       </c>
-      <c r="G68" s="11" t="n">
+      <c r="G68" s="10" t="n">
         <v>121.4281</v>
       </c>
-      <c r="H68" s="11" t="n">
+      <c r="H68" s="10" t="n">
         <v>94.08315</v>
       </c>
-      <c r="I68" s="11" t="n">
+      <c r="I68" s="10" t="n">
         <v>278.9826</v>
       </c>
-      <c r="J68" s="11" t="n">
+      <c r="J68" s="10" t="n">
         <v>2.181588</v>
       </c>
-      <c r="U68" s="9"/>
-      <c r="V68" s="9"/>
-      <c r="W68" s="9"/>
-      <c r="X68" s="9"/>
-      <c r="Y68" s="9"/>
-      <c r="Z68" s="9"/>
+      <c r="U68" s="8"/>
+      <c r="V68" s="8"/>
+      <c r="W68" s="8"/>
+      <c r="X68" s="8"/>
+      <c r="Y68" s="8"/>
+      <c r="Z68" s="8"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C69" s="11" t="n">
+      <c r="C69" s="10" t="n">
         <v>0.6777</v>
       </c>
-      <c r="D69" s="11" t="n">
+      <c r="D69" s="10" t="n">
         <v>0.7043</v>
       </c>
-      <c r="E69" s="11" t="n">
+      <c r="E69" s="10" t="n">
         <v>0.514</v>
       </c>
-      <c r="F69" s="11" t="n">
+      <c r="F69" s="10" t="n">
         <v>0.7362288</v>
       </c>
-      <c r="G69" s="11" t="n">
+      <c r="G69" s="10" t="n">
         <v>152.0014</v>
       </c>
-      <c r="H69" s="11" t="n">
+      <c r="H69" s="10" t="n">
         <v>151.5071</v>
       </c>
-      <c r="I69" s="11" t="n">
+      <c r="I69" s="10" t="n">
         <v>201.9838</v>
       </c>
-      <c r="J69" s="12" t="n">
+      <c r="J69" s="11" t="n">
         <v>148.1906</v>
       </c>
-      <c r="U69" s="9"/>
-      <c r="V69" s="9"/>
-      <c r="W69" s="9"/>
-      <c r="X69" s="9"/>
-      <c r="Y69" s="9"/>
-      <c r="Z69" s="9"/>
+      <c r="U69" s="8"/>
+      <c r="V69" s="8"/>
+      <c r="W69" s="8"/>
+      <c r="X69" s="8"/>
+      <c r="Y69" s="8"/>
+      <c r="Z69" s="8"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C70" s="11" t="n">
+      <c r="C70" s="10" t="n">
         <v>0.6533</v>
       </c>
-      <c r="D70" s="11" t="n">
+      <c r="D70" s="10" t="n">
         <v>0.7928</v>
       </c>
-      <c r="E70" s="11" t="n">
+      <c r="E70" s="10" t="n">
         <v>0.5426</v>
       </c>
-      <c r="F70" s="11" t="n">
+      <c r="F70" s="10" t="n">
         <v>0.8254592</v>
       </c>
-      <c r="G70" s="11" t="n">
+      <c r="G70" s="10" t="n">
         <v>147.1561</v>
       </c>
-      <c r="H70" s="11" t="n">
+      <c r="H70" s="10" t="n">
         <v>134.2306</v>
       </c>
-      <c r="I70" s="11" t="n">
+      <c r="I70" s="10" t="n">
         <v>198.5979</v>
       </c>
-      <c r="J70" s="11" t="n">
+      <c r="J70" s="10" t="n">
         <v>129.2504</v>
       </c>
-      <c r="U70" s="9"/>
-      <c r="V70" s="9"/>
-      <c r="W70" s="9"/>
-      <c r="X70" s="9"/>
-      <c r="Y70" s="9"/>
-      <c r="Z70" s="9"/>
+      <c r="U70" s="8"/>
+      <c r="V70" s="8"/>
+      <c r="W70" s="8"/>
+      <c r="X70" s="8"/>
+      <c r="Y70" s="8"/>
+      <c r="Z70" s="8"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C71" s="11" t="n">
+      <c r="C71" s="10" t="n">
         <v>0.5888</v>
       </c>
-      <c r="D71" s="11" t="n">
+      <c r="D71" s="10" t="n">
         <v>0.7839</v>
       </c>
-      <c r="E71" s="11" t="n">
+      <c r="E71" s="10" t="n">
         <v>0.5555</v>
       </c>
-      <c r="F71" s="11" t="n">
+      <c r="F71" s="10" t="n">
         <v>0.9431319</v>
       </c>
-      <c r="G71" s="11" t="n">
+      <c r="G71" s="10" t="n">
         <v>195.4789</v>
       </c>
-      <c r="H71" s="11" t="n">
+      <c r="H71" s="10" t="n">
         <v>178.8187</v>
       </c>
-      <c r="I71" s="11" t="n">
+      <c r="I71" s="10" t="n">
         <v>198.6404</v>
       </c>
-      <c r="J71" s="11" t="n">
+      <c r="J71" s="10" t="n">
         <v>140.1086</v>
       </c>
-      <c r="U71" s="9"/>
-      <c r="V71" s="9"/>
-      <c r="W71" s="9"/>
-      <c r="X71" s="9"/>
-      <c r="Y71" s="9"/>
-      <c r="Z71" s="9"/>
+      <c r="U71" s="8"/>
+      <c r="V71" s="8"/>
+      <c r="W71" s="8"/>
+      <c r="X71" s="8"/>
+      <c r="Y71" s="8"/>
+      <c r="Z71" s="8"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C72" s="11" t="n">
+      <c r="C72" s="10" t="n">
         <v>0.7991</v>
       </c>
-      <c r="D72" s="11" t="n">
+      <c r="D72" s="10" t="n">
         <v>0.8015</v>
       </c>
-      <c r="E72" s="11" t="n">
+      <c r="E72" s="10" t="n">
         <v>0.3166</v>
       </c>
-      <c r="F72" s="11" t="n">
+      <c r="F72" s="10" t="n">
         <v>0.8607822</v>
       </c>
-      <c r="G72" s="11" t="n">
+      <c r="G72" s="10" t="n">
         <v>211.6028</v>
       </c>
-      <c r="H72" s="11" t="n">
+      <c r="H72" s="10" t="n">
         <v>213.1107</v>
       </c>
-      <c r="I72" s="11" t="n">
+      <c r="I72" s="10" t="n">
         <v>260.68</v>
       </c>
-      <c r="J72" s="11" t="n">
+      <c r="J72" s="10" t="n">
         <v>198.5562</v>
       </c>
-      <c r="U72" s="9"/>
-      <c r="V72" s="9"/>
-      <c r="W72" s="9"/>
-      <c r="X72" s="9"/>
-      <c r="Y72" s="9"/>
-      <c r="Z72" s="9"/>
+      <c r="U72" s="8"/>
+      <c r="V72" s="8"/>
+      <c r="W72" s="8"/>
+      <c r="X72" s="8"/>
+      <c r="Y72" s="8"/>
+      <c r="Z72" s="8"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C73" s="11" t="n">
+      <c r="C73" s="10" t="n">
         <v>0.8528</v>
       </c>
-      <c r="D73" s="11" t="n">
+      <c r="D73" s="10" t="n">
         <v>0.8576</v>
       </c>
-      <c r="E73" s="11" t="n">
+      <c r="E73" s="10" t="n">
         <v>0.265</v>
       </c>
-      <c r="F73" s="11" t="n">
+      <c r="F73" s="10" t="n">
         <v>0.8650669</v>
       </c>
-      <c r="G73" s="11" t="n">
+      <c r="G73" s="10" t="n">
         <v>83.84264</v>
       </c>
-      <c r="H73" s="11" t="n">
+      <c r="H73" s="10" t="n">
         <v>84.48439</v>
       </c>
-      <c r="I73" s="11" t="n">
+      <c r="I73" s="10" t="n">
         <v>260.3996</v>
       </c>
-      <c r="J73" s="11" t="n">
+      <c r="J73" s="10" t="n">
         <v>82.28614</v>
       </c>
-      <c r="U73" s="9"/>
-      <c r="V73" s="9"/>
-      <c r="W73" s="9"/>
-      <c r="X73" s="9"/>
-      <c r="Y73" s="9"/>
-      <c r="Z73" s="9"/>
+      <c r="U73" s="8"/>
+      <c r="V73" s="8"/>
+      <c r="W73" s="8"/>
+      <c r="X73" s="8"/>
+      <c r="Y73" s="8"/>
+      <c r="Z73" s="8"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C74" s="11" t="n">
+      <c r="C74" s="10" t="n">
         <v>0.8515</v>
       </c>
-      <c r="D74" s="11" t="n">
+      <c r="D74" s="10" t="n">
         <v>0.8515</v>
       </c>
-      <c r="E74" s="11" t="n">
+      <c r="E74" s="10" t="n">
         <v>0.291</v>
       </c>
-      <c r="F74" s="11" t="n">
+      <c r="F74" s="10" t="n">
         <v>0.8636606</v>
       </c>
-      <c r="G74" s="11" t="n">
+      <c r="G74" s="10" t="n">
         <v>85.83068</v>
       </c>
-      <c r="H74" s="11" t="n">
+      <c r="H74" s="10" t="n">
         <v>87.83043</v>
       </c>
-      <c r="I74" s="11" t="n">
+      <c r="I74" s="10" t="n">
         <v>258.3434</v>
       </c>
-      <c r="J74" s="11" t="n">
+      <c r="J74" s="10" t="n">
         <v>84.33496</v>
       </c>
-      <c r="U74" s="9"/>
-      <c r="V74" s="9"/>
-      <c r="W74" s="9"/>
-      <c r="X74" s="9"/>
-      <c r="Y74" s="9"/>
-      <c r="Z74" s="9"/>
+      <c r="U74" s="8"/>
+      <c r="V74" s="8"/>
+      <c r="W74" s="8"/>
+      <c r="X74" s="8"/>
+      <c r="Y74" s="8"/>
+      <c r="Z74" s="8"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C75" s="11" t="n">
+      <c r="C75" s="10" t="n">
         <v>0.4608</v>
       </c>
-      <c r="D75" s="11" t="n">
+      <c r="D75" s="10" t="n">
         <v>0.7456</v>
       </c>
-      <c r="E75" s="11" t="n">
+      <c r="E75" s="10" t="n">
         <v>0.275</v>
       </c>
-      <c r="F75" s="11" t="n">
+      <c r="F75" s="10" t="n">
         <v>0.9859306</v>
       </c>
-      <c r="G75" s="11" t="n">
+      <c r="G75" s="10" t="n">
         <v>196.8923</v>
       </c>
-      <c r="H75" s="11" t="n">
+      <c r="H75" s="10" t="n">
         <v>167.3446</v>
       </c>
-      <c r="I75" s="11" t="n">
+      <c r="I75" s="10" t="n">
         <v>233.9929</v>
       </c>
-      <c r="J75" s="11" t="n">
+      <c r="J75" s="10" t="n">
         <v>45.75811</v>
       </c>
-      <c r="U75" s="9"/>
-      <c r="V75" s="9"/>
-      <c r="W75" s="9"/>
-      <c r="X75" s="9"/>
-      <c r="Y75" s="9"/>
-      <c r="Z75" s="9"/>
+      <c r="U75" s="8"/>
+      <c r="V75" s="8"/>
+      <c r="W75" s="8"/>
+      <c r="X75" s="8"/>
+      <c r="Y75" s="8"/>
+      <c r="Z75" s="8"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C76" s="11" t="n">
+      <c r="C76" s="10" t="n">
         <v>0.9692</v>
       </c>
-      <c r="D76" s="11" t="n">
+      <c r="D76" s="10" t="n">
         <v>0.9742</v>
       </c>
-      <c r="E76" s="11" t="n">
+      <c r="E76" s="10" t="n">
         <v>0.3991</v>
       </c>
-      <c r="F76" s="11" t="n">
+      <c r="F76" s="10" t="n">
         <v>0.9576227</v>
       </c>
-      <c r="G76" s="11" t="n">
+      <c r="G76" s="10" t="n">
         <v>-113.6223</v>
       </c>
-      <c r="H76" s="11" t="n">
+      <c r="H76" s="10" t="n">
         <v>-119.1107</v>
       </c>
-      <c r="I76" s="11" t="n">
+      <c r="I76" s="10" t="n">
         <v>217.4048</v>
       </c>
-      <c r="J76" s="11" t="n">
+      <c r="J76" s="10" t="n">
         <v>-98.2007</v>
       </c>
-      <c r="U76" s="9"/>
-      <c r="V76" s="9"/>
-      <c r="W76" s="9"/>
-      <c r="X76" s="9"/>
-      <c r="Y76" s="9"/>
-      <c r="Z76" s="9"/>
+      <c r="U76" s="8"/>
+      <c r="V76" s="8"/>
+      <c r="W76" s="8"/>
+      <c r="X76" s="8"/>
+      <c r="Y76" s="8"/>
+      <c r="Z76" s="8"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C77" s="11" t="n">
+      <c r="C77" s="10" t="n">
         <v>0.1052</v>
       </c>
-      <c r="D77" s="11" t="n">
+      <c r="D77" s="10" t="n">
         <v>0.524</v>
       </c>
-      <c r="E77" s="11" t="n">
+      <c r="E77" s="10" t="n">
         <v>0.2546</v>
       </c>
-      <c r="F77" s="11" t="n">
+      <c r="F77" s="10" t="n">
         <v>0.8319596</v>
       </c>
-      <c r="G77" s="11" t="n">
+      <c r="G77" s="10" t="n">
         <v>27.02489</v>
       </c>
-      <c r="H77" s="11" t="n">
+      <c r="H77" s="10" t="n">
         <v>2.521108</v>
       </c>
-      <c r="I77" s="11" t="n">
+      <c r="I77" s="10" t="n">
         <v>228.9516</v>
       </c>
-      <c r="J77" s="11" t="n">
+      <c r="J77" s="10" t="n">
         <v>-41.21397</v>
       </c>
-      <c r="U77" s="9"/>
-      <c r="V77" s="9"/>
-      <c r="W77" s="9"/>
-      <c r="X77" s="9"/>
-      <c r="Y77" s="9"/>
-      <c r="Z77" s="9"/>
+      <c r="U77" s="8"/>
+      <c r="V77" s="8"/>
+      <c r="W77" s="8"/>
+      <c r="X77" s="8"/>
+      <c r="Y77" s="8"/>
+      <c r="Z77" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
